--- a/biology/Médecine/Andreas_Mettenleiter/Andreas_Mettenleiter.xlsx
+++ b/biology/Médecine/Andreas_Mettenleiter/Andreas_Mettenleiter.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Andreas Mettenleiter (né en 1968) est un historien médical allemand.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mettenleiter étudie la médecine et les sciences humaines à l'Université de Ratisbonne, à l'Université de Wurtzbourg, à l'Université de La Sapienza, à l'Université d'Utrecht et à l'Université de Caen[1]. Avec une thèse sur Adam Christian Thebesius (de), il obtient son doctorat à Wurtzbourg en 1999. Il est chargé de cours à l'Institut d'histoire de la médecine de l'Université de Wurtzbourg . Ses publications se concentrent sur la dynastie médicale de Siebold, en particulier Philipp Franz von Siebold, et l'histoire médicale de Wurtzbourg[1]. En 2012, il organise l'exposition Philipp Franz von Siebold : Jugend à Würzburg. Il est le deuxième président du conseil d'administration de la société Siebold[2], membre du Corps Moenania Würzburg (de) et directeur général d'une entreprise de matériel pédagogique[1]. Il est membre du conseil d'administration et actuel président de la société Julius-Hirschberg (de) depuis 2020[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mettenleiter étudie la médecine et les sciences humaines à l'Université de Ratisbonne, à l'Université de Wurtzbourg, à l'Université de La Sapienza, à l'Université d'Utrecht et à l'Université de Caen. Avec une thèse sur Adam Christian Thebesius (de), il obtient son doctorat à Wurtzbourg en 1999. Il est chargé de cours à l'Institut d'histoire de la médecine de l'Université de Wurtzbourg . Ses publications se concentrent sur la dynastie médicale de Siebold, en particulier Philipp Franz von Siebold, et l'histoire médicale de Wurtzbourg. En 2012, il organise l'exposition Philipp Franz von Siebold : Jugend à Würzburg. Il est le deuxième président du conseil d'administration de la société Siebold, membre du Corps Moenania Würzburg (de) et directeur général d'une entreprise de matériel pédagogique. Il est membre du conseil d'administration et actuel président de la société Julius-Hirschberg (de) depuis 2020.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Adam Christian Thebesius (1686–1732) und die Entdeckung der Vasa cordis minima. Dissertation. Universität Würzburg 1999. Steiner, Stuttgart 2001,  (ISBN 3-515-07917-3).
 Gefangen in Fernost. Sechs Jahre im Leben des Würzburger Kaufmanns Wilhelm Köberlein. Echter, Würzburg 2001,  (ISBN 3-429-02397-1).
